--- a/genshin/539374345368042904_2021-06-23_12-07-56.xlsx
+++ b/genshin/539374345368042904_2021-06-23_12-07-56.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-30 01:05:38</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44377.04557870371</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>4797662476</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-26 22:32:43</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44373.93938657407</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-06-26 22:19:34</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44373.93025462963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>4784683365</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-24 19:08:45</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44371.79774305555</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-24 19:08:33</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44371.79760416667</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -914,10 +920,8 @@
           <t>4783829645</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-06-24 16:21:10</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44371.68136574074</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -986,10 +990,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-06-24 09:15:38</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44371.38585648148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1065,10 +1067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-06-24 08:12:39</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44371.34211805555</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1147,10 +1147,8 @@
           <t>4777307755</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-06-24 01:46:08</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44371.0737037037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1223,10 +1221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:33:55</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44370.98188657407</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1298,10 +1294,8 @@
           <t>4777297122</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-06-23 23:26:56</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44370.97703703704</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1373,10 +1367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-06-23 21:34:44</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44370.89912037037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1449,10 +1441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-06-23 21:34:23</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44370.89887731482</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1512,10 +1502,8 @@
           <t>4777395524</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:16:13</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44370.84459490741</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1579,10 +1567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:12:44</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44370.84217592593</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1659,10 +1645,8 @@
           <t>4777307755</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:03:32</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44370.83578703704</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1726,10 +1710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-06-23 20:00:18</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44370.83354166667</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1801,10 +1783,8 @@
           <t>4779500253</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:50:58</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44370.82706018518</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -1876,10 +1856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:36:39</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44370.81711805556</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1955,10 +1933,8 @@
           <t>4779398863</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:34:43</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44370.81577546296</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2022,10 +1998,8 @@
           <t>4779225162</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:28:57</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44370.81177083333</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2093,10 +2067,8 @@
           <t>4779225162</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-06-23 19:03:10</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44370.79386574074</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2172,10 +2144,8 @@
           <t>4779171498</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:53:39</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44370.78725694444</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2243,10 +2213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:26:17</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44370.76825231482</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2306,10 +2274,8 @@
           <t>4779010848</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:25:48</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44370.76791666666</v>
       </c>
       <c r="I26" t="n">
         <v>19</v>
@@ -2385,10 +2351,8 @@
           <t>4777317469</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:19:26</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44370.76349537037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2464,10 +2428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-06-23 18:05:17</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44370.75366898148</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2531,10 +2493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:48:13</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44370.74181712963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2606,10 +2566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:41:29</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44370.7371412037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2677,10 +2635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:35:14</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44370.73280092593</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2740,10 +2696,8 @@
           <t>4778575078</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-06-23 17:03:37</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44370.71084490741</v>
       </c>
       <c r="I32" t="n">
         <v>14</v>
@@ -2811,10 +2765,8 @@
           <t>4777395524</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:58:54</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44370.70756944444</v>
       </c>
       <c r="I33" t="n">
         <v>22</v>
@@ -2882,10 +2834,8 @@
           <t>4778452275</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:37:14</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44370.69252314815</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2953,10 +2903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:34:49</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44370.69084490741</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3024,10 +2972,8 @@
           <t>4778385814</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:21:07</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44370.68133101852</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3096,10 +3042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:16:25</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44370.67806712963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3167,10 +3111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:10:42</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44370.67409722223</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3234,10 +3176,8 @@
           <t>4777395524</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-06-23 16:03:55</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44370.66938657407</v>
       </c>
       <c r="I39" t="n">
         <v>20</v>
@@ -3305,10 +3245,8 @@
           <t>4777417151</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:58:08</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44370.66537037037</v>
       </c>
       <c r="I40" t="n">
         <v>12</v>
@@ -3372,10 +3310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:53:09</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44370.66190972222</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3443,10 +3379,8 @@
           <t>4778262069</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:52:30</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44370.66145833334</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3514,10 +3448,8 @@
           <t>4778233023</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:45:25</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44370.65653935185</v>
       </c>
       <c r="I43" t="n">
         <v>8</v>
@@ -3581,10 +3513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:43:16</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44370.6550462963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3656,10 +3586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:36:06</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44370.65006944445</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3727,10 +3655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:33:52</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44370.64851851852</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3798,10 +3724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:28:44</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44370.6449537037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3873,10 +3797,8 @@
           <t>4777417151</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:26:35</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44370.64346064815</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
@@ -3940,10 +3862,8 @@
           <t>4778095449</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:23:24</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44370.64125</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4015,10 +3935,8 @@
           <t>4777417151</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:12:45</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44370.63385416667</v>
       </c>
       <c r="I50" t="n">
         <v>7</v>
@@ -4108,10 +4026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:10:13</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44370.63209490741</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4171,10 +4087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:09:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44370.63125</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4246,10 +4160,8 @@
           <t>4778095449</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-06-23 15:07:41</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44370.63033564815</v>
       </c>
       <c r="I53" t="n">
         <v>5</v>
@@ -4317,10 +4229,8 @@
           <t>4777395524</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:59:25</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44370.62459490741</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4388,10 +4298,8 @@
           <t>4778065231</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:59:20</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44370.62453703704</v>
       </c>
       <c r="I55" t="n">
         <v>6</v>
@@ -4459,10 +4367,8 @@
           <t>4777374126</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:57:06</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44370.62298611111</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4534,10 +4440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:49:40</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44370.61782407408</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4605,10 +4509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:48:22</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44370.6169212963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4676,10 +4578,8 @@
           <t>4777374126</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:45:27</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44370.61489583334</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4739,10 +4639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:42:06</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44370.61256944444</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4806,10 +4704,8 @@
           <t>4777954594</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:30:54</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44370.60479166666</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4885,10 +4781,8 @@
           <t>4777945078</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:27:06</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44370.60215277778</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4964,10 +4858,8 @@
           <t>4777937334</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:25:05</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44370.60075231481</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5043,10 +4935,8 @@
           <t>4777918151</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:21:41</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44370.5983912037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5114,10 +5004,8 @@
           <t>4777307755</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:11:08</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44370.59106481481</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5189,10 +5077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:05:13</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44370.58695601852</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5268,10 +5154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:04:56</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44370.58675925926</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5348,10 +5232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:04:48</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44370.58666666667</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5424,10 +5306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:04:12</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44370.58625</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5491,10 +5371,8 @@
           <t>4777855305</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-06-23 14:03:56</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44370.58606481482</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5566,10 +5444,8 @@
           <t>4777829413</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:59:31</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44370.58299768518</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5637,10 +5513,8 @@
           <t>4777835660</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:58:58</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44370.58261574074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5720,10 +5594,8 @@
           <t>4777299870</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:53:33</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44370.57885416667</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5783,10 +5655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:47:05</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44370.57436342593</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5846,10 +5716,8 @@
           <t>4777529532</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:45:14</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44370.5730787037</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -5917,10 +5785,8 @@
           <t>4777758940</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:41:11</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44370.5702662037</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5980,10 +5846,8 @@
           <t>4777340502</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:36:56</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44370.56731481481</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6059,10 +5923,8 @@
           <t>4777733353</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:36:21</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44370.56690972222</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6138,10 +6000,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:35:55</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44370.5666087963</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6213,10 +6073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:35:52</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44370.56657407407</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6292,10 +6150,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:35:38</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44370.56641203703</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6355,10 +6211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:29:41</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44370.56228009259</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6434,10 +6288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:26:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44370.56034722222</v>
       </c>
       <c r="I83" t="n">
         <v>7</v>
@@ -6505,10 +6357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:26:50</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44370.56030092593</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6568,10 +6418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:25:22</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44370.5592824074</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6647,10 +6495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:24:48</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44370.55888888889</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6726,10 +6572,8 @@
           <t>4777384701</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:23:38</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44370.5580787037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6805,10 +6649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:22:37</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44370.55737268519</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6876,10 +6718,8 @@
           <t>4777680643</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:22:18</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44370.55715277778</v>
       </c>
       <c r="I89" t="n">
         <v>4</v>
@@ -6956,10 +6796,8 @@
           <t>4777374126</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:22:07</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44370.55702546296</v>
       </c>
       <c r="I90" t="n">
         <v>10</v>
@@ -7035,10 +6873,8 @@
           <t>4777675500</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:21:53</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44370.55686342593</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7106,10 +6942,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:21:26</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44370.55655092592</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7181,10 +7015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:20:59</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44370.55623842592</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7244,10 +7076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:20:51</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44370.55614583333</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7319,10 +7149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:20:11</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44370.55568287037</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7382,10 +7210,8 @@
           <t>4777656668</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:19:01</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44370.55487268518</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7449,10 +7275,8 @@
           <t>4777649002</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:18:00</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44370.55416666667</v>
       </c>
       <c r="I97" t="n">
         <v>5</v>
@@ -7516,10 +7340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:17:45</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44370.55399305555</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7587,10 +7409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:13:53</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44370.55130787037</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7656,10 +7476,8 @@
           <t>4777636708</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:13:50</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44370.55127314815</v>
       </c>
       <c r="I100" t="n">
         <v>12</v>
@@ -7727,10 +7545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:13:48</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44370.55125</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7802,10 +7618,8 @@
           <t>4777616916</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:11:02</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44370.5493287037</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7873,10 +7687,8 @@
           <t>4777374126</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:06:48</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44370.54638888889</v>
       </c>
       <c r="I103" t="n">
         <v>7</v>
@@ -7944,10 +7756,8 @@
           <t>4777316137</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:06:13</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44370.5459837963</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8015,10 +7825,8 @@
           <t>4777592914</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:06:02</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44370.54585648148</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8090,10 +7898,8 @@
           <t>4777587785</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:05:47</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44370.54568287037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8161,10 +7967,8 @@
           <t>4777574299</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:03:49</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44370.54431712963</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8224,10 +8028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:03:23</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44370.5440162037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8301,10 +8103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:03:11</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44370.54387731481</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8370,10 +8170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:02:59</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44370.54373842593</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8437,10 +8235,8 @@
           <t>4777569543</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:02:31</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44370.54341435185</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8504,10 +8300,8 @@
           <t>4777384701</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-06-23 13:01:19</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44370.54258101852</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8579,10 +8373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:59:57</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44370.54163194444</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8650,10 +8442,8 @@
           <t>4777556838</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:59:38</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44370.54141203704</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8721,10 +8511,8 @@
           <t>4777548858</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:58:29</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44370.54061342592</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8788,10 +8576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:58:01</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44370.54028935185</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8869,10 +8655,8 @@
           <t>4777299870</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:57:54</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44370.54020833333</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8944,10 +8728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:57:50</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44370.54016203704</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9031,10 +8813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:56:22</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44370.53914351852</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9106,10 +8886,8 @@
           <t>4777529532</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:55:34</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44370.53858796296</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9186,10 +8964,8 @@
           <t>4777537370</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:55:31</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44370.53855324074</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9257,10 +9033,8 @@
           <t>4777533058</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:55:30</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44370.53854166667</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9332,10 +9106,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:54:58</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44370.5381712963</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9407,10 +9179,8 @@
           <t>4777535664</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:54:34</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44370.53789351852</v>
       </c>
       <c r="I124" t="n">
         <v>12</v>
@@ -9478,10 +9248,8 @@
           <t>4777531147</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:54:31</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44370.5378587963</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9553,10 +9321,8 @@
           <t>4777527471</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:54:27</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44370.5378125</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9624,10 +9390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:53:55</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44370.53744212963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9699,10 +9463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:51:24</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44370.53569444444</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9766,10 +9528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:51:17</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44370.53561342593</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9845,10 +9605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:51:06</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44370.53548611111</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9920,10 +9678,8 @@
           <t>4777509484</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:51:06</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44370.53548611111</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9999,10 +9755,8 @@
           <t>4777502535</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:50:00</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44370.53472222222</v>
       </c>
       <c r="I132" t="n">
         <v>5</v>
@@ -10078,10 +9832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:47:45</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44370.53315972222</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10153,10 +9905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:47:43</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44370.53313657407</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10220,10 +9970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:46:53</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44370.53255787037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10291,10 +10039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:46:49</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44370.53251157407</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10362,10 +10108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:45:44</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44370.53175925926</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10429,10 +10173,8 @@
           <t>4777477855</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:45:19</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44370.53146990741</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10508,10 +10250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:45:10</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44370.53136574074</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10587,10 +10327,8 @@
           <t>4777307755</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:44:23</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44370.53082175926</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10658,10 +10396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:43:51</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44370.53045138889</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10725,10 +10461,8 @@
           <t>4777467287</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:43:48</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44370.53041666667</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10796,10 +10530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:43:14</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44370.53002314815</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10871,10 +10603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:43:12</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44370.53</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10952,10 +10682,8 @@
           <t>4777299870</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:43:02</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44370.52988425926</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11027,10 +10755,8 @@
           <t>4777274344</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:41:53</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44370.52908564815</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11102,10 +10828,8 @@
           <t>4777453012</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:41:32</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44370.52884259259</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11181,10 +10905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:40:31</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44370.52813657407</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11256,10 +10978,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:40:31</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44370.52813657407</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11335,10 +11055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:40:08</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44370.52787037037</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11406,10 +11124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:39:36</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44370.5275</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11485,10 +11201,8 @@
           <t>4777445209</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:39:06</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44370.52715277778</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11560,10 +11274,8 @@
           <t>4777297122</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:38:35</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44370.52679398148</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11627,10 +11339,8 @@
           <t>4777441538</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:38:28</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44370.52671296296</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11698,10 +11408,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:38:06</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44370.52645833333</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11769,10 +11477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:37:50</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44370.52627314815</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11840,10 +11546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:37:45</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44370.52621527778</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11919,10 +11623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:36:05</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44370.52505787037</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11998,10 +11700,8 @@
           <t>4777417151</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:35:11</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44370.52443287037</v>
       </c>
       <c r="I159" t="n">
         <v>88</v>
@@ -12077,10 +11777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:34:14</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44370.52377314815</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12148,10 +11846,8 @@
           <t>4777413783</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:34:12</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44370.52375</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12219,10 +11915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:34:01</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44370.52362268518</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12290,10 +11984,8 @@
           <t>4777411924</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:33:15</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44370.52309027778</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12353,10 +12045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:32:05</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44370.52228009259</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12420,10 +12110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:32:05</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44370.52228009259</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12491,10 +12179,8 @@
           <t>4777384701</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:32:04</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44370.52226851852</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12554,10 +12240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:31:41</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44370.52200231481</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12617,10 +12301,8 @@
           <t>4777389236</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:31:22</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44370.52178240741</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12688,10 +12370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:31:20</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44370.52175925926</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12755,10 +12435,8 @@
           <t>4777397051</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:30:48</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44370.52138888889</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12826,10 +12504,8 @@
           <t>4777396596</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:30:34</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44370.52122685185</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12901,10 +12577,8 @@
           <t>4777379799</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:30:11</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44370.52096064815</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -12976,10 +12650,8 @@
           <t>4777395524</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:30:02</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44370.52085648148</v>
       </c>
       <c r="I173" t="n">
         <v>132</v>
@@ -13055,10 +12727,8 @@
           <t>4777374126</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:29:45</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44370.52065972222</v>
       </c>
       <c r="I174" t="n">
         <v>8</v>
@@ -13130,10 +12800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:29:44</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44370.52064814815</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13193,10 +12861,8 @@
           <t>4777384701</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:29:36</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44370.52055555556</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13272,10 +12938,8 @@
           <t>4777379799</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:29:32</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44370.52050925926</v>
       </c>
       <c r="I177" t="n">
         <v>9</v>
@@ -13344,10 +13008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:29:25</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44370.52042824074</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13415,10 +13077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:28:59</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44370.52012731481</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13482,10 +13142,8 @@
           <t>4777374126</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:28:55</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44370.52008101852</v>
       </c>
       <c r="I180" t="n">
         <v>8</v>
@@ -13553,10 +13211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:28:54</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44370.52006944444</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13620,10 +13276,8 @@
           <t>4777373688</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:28:41</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44370.51991898148</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13683,10 +13337,8 @@
           <t>4777307755</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:28:37</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44370.51987268519</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13762,10 +13414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:28:17</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44370.5196412037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13833,10 +13483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:28:11</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44370.51957175926</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13900,10 +13548,8 @@
           <t>4777381629</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:28:02</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44370.5194675926</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13979,10 +13625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:28:00</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44370.51944444444</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14056,10 +13700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:27:57</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44370.51940972222</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14131,10 +13773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:26:26</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44370.51835648148</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14210,10 +13850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:26:02</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44370.5180787037</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14273,10 +13911,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:26:00</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44370.51805555556</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14344,10 +13980,8 @@
           <t>4777320364</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:25:29</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44370.51769675926</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14423,10 +14057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:25:26</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44370.51766203704</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14490,10 +14122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:25:25</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44370.51765046296</v>
       </c>
       <c r="I194" t="n">
         <v>13</v>
@@ -14557,10 +14187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:25:20</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44370.51759259259</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14624,10 +14252,8 @@
           <t>4777356423</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:25:05</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44370.51741898148</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14695,10 +14321,8 @@
           <t>4777360872</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:24:54</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44370.51729166666</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14770,10 +14394,8 @@
           <t>4777343887</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:23:43</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44370.51646990741</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14849,10 +14471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:23:41</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44370.51644675926</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14924,10 +14544,8 @@
           <t>4777351793</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:23:00</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44370.51597222222</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14995,10 +14613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:22:47</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44370.51582175926</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15062,10 +14678,8 @@
           <t>4777350847</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:22:30</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44370.515625</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15137,10 +14751,8 @@
           <t>4777350345</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:22:14</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44370.51543981482</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15212,10 +14824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:22:07</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44370.5153587963</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15291,10 +14901,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:22:05</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44370.51533564815</v>
       </c>
       <c r="I205" t="n">
         <v>5</v>
@@ -15370,10 +14978,8 @@
           <t>4777340502</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:21:54</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44370.51520833333</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15449,10 +15055,8 @@
           <t>4777320364</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:21:02</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44370.51460648148</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15512,10 +15116,8 @@
           <t>4777307755</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:20:45</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44370.51440972222</v>
       </c>
       <c r="I208" t="n">
         <v>2</v>
@@ -15579,10 +15181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:20:40</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44370.51435185185</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15650,10 +15250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:20:35</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44370.51429398148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15721,10 +15319,8 @@
           <t>4777332082</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:20:29</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44370.51422453704</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15800,10 +15396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:20:17</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44370.51408564814</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15871,10 +15465,8 @@
           <t>4777335943</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:20:00</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44370.51388888889</v>
       </c>
       <c r="I213" t="n">
         <v>5</v>
@@ -15938,10 +15530,8 @@
           <t>4777330883</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:19:52</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44370.5137962963</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16017,10 +15607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:19:49</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44370.51376157408</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16084,10 +15672,8 @@
           <t>4777307755</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:19:38</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44370.51363425926</v>
       </c>
       <c r="I216" t="n">
         <v>8</v>
@@ -16163,10 +15749,8 @@
           <t>4777324730</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:19:23</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44370.51346064815</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16242,10 +15826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:35</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44370.51290509259</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16309,10 +15891,8 @@
           <t>4777318385</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:33</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44370.51288194444</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16376,10 +15956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:30</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44370.51284722222</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16447,10 +16025,8 @@
           <t>4777322877</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:26</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44370.51280092593</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16518,10 +16094,8 @@
           <t>4777322766</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:23</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44370.5127662037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16595,10 +16169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:20</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44370.51273148148</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16666,10 +16238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:17</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44370.51269675926</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16729,10 +16299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:09</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44370.51260416667</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16804,10 +16372,8 @@
           <t>4777313675</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:09</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44370.51260416667</v>
       </c>
       <c r="I226" t="n">
         <v>5</v>
@@ -16883,10 +16449,8 @@
           <t>4777317469</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:18:04</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44370.5125462963</v>
       </c>
       <c r="I227" t="n">
         <v>3</v>
@@ -16962,10 +16526,8 @@
           <t>4777307755</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:32</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44370.51217592593</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17029,10 +16591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:31</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44370.51216435185</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17101,10 +16661,8 @@
           <t>4777312424</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:28</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44370.51212962963</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17178,10 +16736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:25</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44370.5120949074</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17241,10 +16797,8 @@
           <t>4777320817</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:22</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44370.51206018519</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17304,10 +16858,8 @@
           <t>4777316137</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:20</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44370.51203703704</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17383,10 +16935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:16</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44370.51199074074</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17450,10 +17000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:13</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44370.51195601852</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17521,10 +17069,8 @@
           <t>4777311971</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:12</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44370.51194444444</v>
       </c>
       <c r="I236" t="n">
         <v>4</v>
@@ -17588,10 +17134,8 @@
           <t>4777320364</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:08</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44370.51189814815</v>
       </c>
       <c r="I237" t="n">
         <v>20</v>
@@ -17651,10 +17195,8 @@
           <t>4777311775</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:05</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44370.51186342593</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17727,10 +17269,8 @@
           <t>4777320126</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:17:01</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44370.51181712963</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17798,10 +17338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:16:48</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44370.51166666667</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17877,10 +17415,8 @@
           <t>4777309298</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:16:34</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44370.51150462963</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17956,10 +17492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:16:33</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44370.51149305556</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18035,10 +17569,8 @@
           <t>4777304544</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:16:28</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44370.51143518519</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18114,10 +17646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:16:11</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44370.51123842593</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18189,10 +17719,8 @@
           <t>4777304007</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:16:10</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44370.51122685185</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18260,10 +17788,8 @@
           <t>4777299870</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:16:02</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44370.51113425926</v>
       </c>
       <c r="I246" t="n">
         <v>20</v>
@@ -18339,10 +17865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:55</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44370.51105324074</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18402,10 +17926,8 @@
           <t>4777303473</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:52</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44370.51101851852</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18477,10 +17999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:49</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44370.5109837963</v>
       </c>
       <c r="I249" t="n">
         <v>3</v>
@@ -18544,10 +18064,8 @@
           <t>4777307755</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:48</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44370.51097222222</v>
       </c>
       <c r="I250" t="n">
         <v>59</v>
@@ -18619,10 +18137,8 @@
           <t>4777299453</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:48</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44370.51097222222</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18698,10 +18214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:47</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44370.51096064815</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18765,10 +18279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:23</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44370.51068287037</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18840,10 +18352,8 @@
           <t>4777306470</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:10</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44370.51053240741</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18915,10 +18425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:08</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44370.51050925926</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -18993,10 +18501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:15:05</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44370.51047453703</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19075,10 +18581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:55</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44370.51035879629</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19138,10 +18642,8 @@
           <t>4777284999</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:51</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44370.5103125</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19213,10 +18715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:46</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44370.51025462963</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19288,10 +18788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:39</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44370.51017361111</v>
       </c>
       <c r="I260" t="n">
         <v>37</v>
@@ -19356,10 +18854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:36</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44370.51013888889</v>
       </c>
       <c r="I261" t="n">
         <v>69</v>
@@ -19419,10 +18915,8 @@
           <t>4777297213</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:34</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44370.51011574074</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19494,10 +18988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:33</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44370.51010416666</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19561,10 +19053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:32</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44370.51009259259</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19628,10 +19118,8 @@
           <t>4777297122</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:31</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44370.51008101852</v>
       </c>
       <c r="I265" t="n">
         <v>22</v>
@@ -19703,10 +19191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:29</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44370.51005787037</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19774,10 +19260,8 @@
           <t>4777300809</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:25</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44370.51001157407</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19841,10 +19325,8 @@
           <t>4777274749</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:23</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44370.50998842593</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19920,10 +19402,8 @@
           <t>4777288944</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:17</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44370.50991898148</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19995,10 +19475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:16</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44370.50990740741</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20066,10 +19544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:15</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44370.50989583333</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20137,10 +19613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:15</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44370.50989583333</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20216,10 +19690,8 @@
           <t>4777294763</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:15</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44370.50989583333</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20291,10 +19763,8 @@
           <t>4777294749</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:15</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44370.50989583333</v>
       </c>
       <c r="I274" t="n">
         <v>6</v>
@@ -20362,10 +19832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:12</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44370.50986111111</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20437,10 +19905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:11</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44370.50984953704</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20508,10 +19974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:09</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44370.50982638889</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20575,10 +20039,8 @@
           <t>4777300134</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:04</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44370.50976851852</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20654,10 +20116,8 @@
           <t>4777296298</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:14:02</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44370.50974537037</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20729,10 +20189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:50</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44370.50960648148</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20822,10 +20280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:46</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44370.50956018519</v>
       </c>
       <c r="I281" t="n">
         <v>53</v>
@@ -20902,10 +20358,8 @@
           <t>4777293802</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:45</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44370.50954861111</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20980,10 +20434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:41</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44370.50950231482</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21051,10 +20503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:36</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44370.50944444445</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21122,10 +20572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:27</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44370.50934027778</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21193,10 +20641,8 @@
           <t>4777293219</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:27</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44370.50934027778</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21256,10 +20702,8 @@
           <t>4777288944</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:26</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44370.5093287037</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -21332,10 +20776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:23</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44370.50929398148</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21403,10 +20845,8 @@
           <t>4777284999</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:18</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44370.50923611111</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21474,10 +20914,8 @@
           <t>4777292906</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:18</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44370.50923611111</v>
       </c>
       <c r="I290" t="n">
         <v>89</v>
@@ -21550,10 +20988,8 @@
           <t>4777292858</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:16</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44370.50921296296</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21632,10 +21068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:02</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44370.50905092592</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21703,10 +21137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:02</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44370.50905092592</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21770,10 +21202,8 @@
           <t>4777292408</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:13:02</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44370.50905092592</v>
       </c>
       <c r="I294" t="n">
         <v>3</v>
@@ -21845,10 +21275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:52</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44370.50893518519</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21912,10 +21340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:46</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44370.50886574074</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21987,10 +21413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:45</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44370.50885416667</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22054,10 +21478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:44</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44370.50884259259</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22133,10 +21555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:39</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44370.50878472222</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22196,10 +21616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:38</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44370.50877314815</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22275,10 +21693,8 @@
           <t>4777274749</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:37</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44370.50876157408</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22338,10 +21754,8 @@
           <t>4777287180</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:28</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44370.50865740741</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22413,10 +21827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:22</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44370.50858796296</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22489,10 +21901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:22</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44370.50858796296</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22568,10 +21978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:21</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44370.50857638889</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22639,10 +22047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:16</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44370.50851851852</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22710,10 +22116,8 @@
           <t>4777290876</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:15</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44370.50850694445</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22781,10 +22185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:13</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44370.50848379629</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22852,10 +22254,8 @@
           <t>4777286716</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:13</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44370.50848379629</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22927,10 +22327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:12</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44370.50847222222</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22998,10 +22396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:08</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44370.50842592592</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23069,10 +22465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:06</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44370.50840277778</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23140,10 +22534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:12:05</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44370.5083912037</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23215,10 +22607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:59</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44370.50832175926</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23290,10 +22680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:59</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44370.50832175926</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23365,10 +22753,8 @@
           <t>4777282658</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:59</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44370.50832175926</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23436,10 +22822,8 @@
           <t>4777282642</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:59</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44370.50832175926</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23511,10 +22895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:58</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44370.50831018519</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23574,10 +22956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:57</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44370.50829861111</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23641,10 +23021,8 @@
           <t>4777290186</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:53</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44370.50825231482</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23720,10 +23098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:50</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44370.50821759259</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23799,10 +23175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:48</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44370.50819444445</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23863,10 +23237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:47</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44370.50818287037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23934,10 +23306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:45</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44370.50815972222</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24013,10 +23383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:44</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44370.50814814815</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24086,10 +23454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:43</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44370.50813657408</v>
       </c>
       <c r="I326" t="n">
         <v>143</v>
@@ -24161,10 +23527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:42</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44370.508125</v>
       </c>
       <c r="I327" t="n">
         <v>23</v>
@@ -24240,10 +23604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:42</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44370.508125</v>
       </c>
       <c r="I328" t="n">
         <v>307</v>
@@ -24319,10 +23681,8 @@
           <t>4777285756</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:42</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44370.508125</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -24390,10 +23750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:41</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44370.50811342592</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24465,10 +23823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:40</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44370.50810185185</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24536,10 +23892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:39</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44370.50809027778</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24607,10 +23961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:38</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44370.5080787037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24674,10 +24026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:37</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44370.50806712963</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24749,10 +24099,8 @@
           <t>4777282038</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:37</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44370.50806712963</v>
       </c>
       <c r="I335" t="n">
         <v>6</v>
@@ -24820,10 +24168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:36</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44370.50805555555</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24891,10 +24237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:36</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44370.50805555555</v>
       </c>
       <c r="I337" t="n">
         <v>6</v>
@@ -24970,10 +24314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:34</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44370.50803240741</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25041,10 +24383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:33</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44370.50802083333</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25116,10 +24456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:32</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44370.50800925926</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25187,10 +24525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:30</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44370.50798611111</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25258,10 +24594,8 @@
           <t>4777281814</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:30</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44370.50798611111</v>
       </c>
       <c r="I342" t="n">
         <v>22</v>
@@ -25333,10 +24667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:29</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44370.50797453704</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25408,10 +24740,8 @@
           <t>4777285324</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:27</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44370.50795138889</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25487,10 +24817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:25</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44370.50792824074</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25562,10 +24890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:23</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44370.50790509259</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25629,10 +24955,8 @@
           <t>4777274344</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:22</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44370.50789351852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25708,10 +25032,8 @@
           <t>4777272383</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:19</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44370.5078587963</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25789,10 +25111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:18</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44370.50784722222</v>
       </c>
       <c r="I349" t="n">
         <v>448</v>
@@ -25864,10 +25184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:18</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44370.50784722222</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25935,10 +25253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:15</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44370.5078125</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26010,10 +25326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:14</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44370.50780092592</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26073,10 +25387,8 @@
           <t>4777281367</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:14</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44370.50780092592</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26142,10 +25454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:12</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44370.50777777778</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26221,10 +25531,8 @@
           <t>4777281296</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:11</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44370.5077662037</v>
       </c>
       <c r="I355" t="n">
         <v>2</v>
@@ -26296,10 +25604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:09</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44370.50774305555</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26367,10 +25673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:09</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44370.50774305555</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26446,10 +25750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:08</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44370.50773148148</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26513,10 +25815,8 @@
           <t>4777274749</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:08</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44370.50773148148</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26592,10 +25892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:06</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44370.50770833333</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26674,10 +25972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:05</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44370.50769675926</v>
       </c>
       <c r="I361" t="n">
         <v>678</v>
@@ -26749,10 +26045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:02</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44370.50766203704</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26828,10 +26122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:02</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44370.50766203704</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26891,10 +26183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:11:00</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44370.50763888889</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26954,10 +26244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:56</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44370.50759259259</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27022,10 +26310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:55</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44370.50758101852</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -27097,10 +26383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:54</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44370.50756944445</v>
       </c>
       <c r="I367" t="n">
         <v>67</v>
@@ -27176,10 +26460,8 @@
           <t>4777274344</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:54</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44370.50756944445</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27251,10 +26533,8 @@
           <t>4777274340</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:54</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44370.50756944445</v>
       </c>
       <c r="I369" t="n">
         <v>21</v>
@@ -27330,10 +26610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:53</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44370.50755787037</v>
       </c>
       <c r="I370" t="n">
         <v>5</v>
@@ -27405,10 +26683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:52</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44370.5075462963</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27476,10 +26752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:51</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44370.50753472222</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27548,10 +26822,8 @@
           <t>4777271780</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:47</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44370.50748842592</v>
       </c>
       <c r="I373" t="n">
         <v>7</v>
@@ -27619,10 +26891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:46</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44370.50747685185</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27690,10 +26960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:46</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44370.50747685185</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27761,10 +27029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:46</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44370.50747685185</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27832,10 +27098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44370.50745370371</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27911,10 +27175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:44</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44370.50745370371</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27986,10 +27248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:44</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44370.50745370371</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28053,10 +27313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:44</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44370.50745370371</v>
       </c>
       <c r="I380" t="n">
         <v>4</v>
@@ -28120,10 +27378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:42</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44370.50743055555</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28191,10 +27447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:42</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44370.50743055555</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28266,10 +27520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:42</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44370.50743055555</v>
       </c>
       <c r="I383" t="n">
         <v>200</v>
@@ -28341,10 +27593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:40</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44370.50740740741</v>
       </c>
       <c r="I384" t="n">
         <v>2</v>
@@ -28408,10 +27658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:38</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44370.50738425926</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28487,10 +27735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:37</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44370.50737268518</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28558,10 +27804,8 @@
           <t>4777273793</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:37</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44370.50737268518</v>
       </c>
       <c r="I387" t="n">
         <v>30</v>
@@ -28625,10 +27869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:35</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44370.50734953704</v>
       </c>
       <c r="I388" t="n">
         <v>6</v>
@@ -28697,10 +27939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:32</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44370.50731481481</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28768,10 +28008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:32</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44370.50731481481</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28847,10 +28085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:32</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44370.50731481481</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -28918,10 +28154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:30</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44370.50729166667</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -28989,10 +28223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:29</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44370.50728009259</v>
       </c>
       <c r="I393" t="n">
         <v>4</v>
@@ -29068,10 +28300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:29</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44370.50728009259</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29148,10 +28378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:29</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44370.50728009259</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29215,10 +28443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:28</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44370.50726851852</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29294,10 +28520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:28</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44370.50726851852</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29361,10 +28585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:27</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44370.50725694445</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29440,10 +28662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:24</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44370.50722222222</v>
       </c>
       <c r="I399" t="n">
         <v>10</v>
@@ -29511,10 +28731,8 @@
           <t>4777269906</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:22</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44370.50719907408</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29582,10 +28800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:18</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44370.50715277778</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29656,10 +28872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:13</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44370.50709490741</v>
       </c>
       <c r="I402" t="n">
         <v>21</v>
@@ -29733,10 +28947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:12</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44370.50708333333</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29804,10 +29016,8 @@
           <t>4777269594</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:11</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44370.50707175926</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29875,10 +29085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:10</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44370.50706018518</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29942,10 +29150,8 @@
           <t>4777276859</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:09</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44370.50704861111</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30005,10 +29211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:07</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44370.50702546296</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30072,10 +29276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:06</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44370.50701388889</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30143,10 +29345,8 @@
           <t>4777276760</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:06</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44370.50701388889</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30223,10 +29423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:04</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44370.50699074074</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30298,10 +29496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:04</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44370.50699074074</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30378,10 +29574,8 @@
           <t>4777276713</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:04</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44370.50699074074</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30441,10 +29635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:03</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44370.50697916667</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30520,10 +29712,8 @@
           <t>4777269322</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:10:02</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44370.50696759259</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30587,10 +29777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:59</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44370.50693287037</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30666,10 +29854,8 @@
           <t>4777269251</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:59</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44370.50693287037</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30746,10 +29932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:56</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44370.50689814815</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30813,10 +29997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:54</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44370.506875</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30884,10 +30066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:54</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44370.506875</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30963,10 +30143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:53</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44370.50686342592</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31026,10 +30204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:52</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44370.50685185185</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31093,10 +30269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:51</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44370.50684027778</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31160,10 +30334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:50</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44370.50682870371</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31235,10 +30407,8 @@
           <t>4777272383</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:50</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44370.50682870371</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31314,10 +30484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:49</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44370.50681712963</v>
       </c>
       <c r="I425" t="n">
         <v>46</v>
@@ -31389,10 +30557,8 @@
           <t>4777276264</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:49</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44370.50681712963</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31464,10 +30630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:48</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44370.50680555555</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31531,10 +30695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:47</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44370.50679398148</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31602,10 +30764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:47</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44370.50679398148</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31677,10 +30837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:45</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44370.50677083333</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31755,10 +30913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:43</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44370.50674768518</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31834,10 +30990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:42</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44370.50673611111</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31905,10 +31059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:41</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44370.50672453704</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31976,10 +31128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:41</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44370.50672453704</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32047,10 +31197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:40</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44370.50671296296</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32122,10 +31270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:39</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44370.50670138889</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32189,10 +31335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:39</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44370.50670138889</v>
       </c>
       <c r="I437" t="n">
         <v>2</v>
@@ -32268,10 +31412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:39</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44370.50670138889</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32335,10 +31477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:38</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44370.50668981481</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32410,10 +31550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:38</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44370.50668981481</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32477,10 +31615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:37</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44370.50667824074</v>
       </c>
       <c r="I441" t="n">
         <v>15</v>
@@ -32556,10 +31692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:36</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44370.50666666667</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32627,10 +31761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:35</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44370.50665509259</v>
       </c>
       <c r="I443" t="n">
         <v>4</v>
@@ -32690,10 +31822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:35</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44370.50665509259</v>
       </c>
       <c r="I444" t="n">
         <v>9</v>
@@ -32757,10 +31887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:32</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44370.50662037037</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32828,10 +31956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:32</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44370.50662037037</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32907,10 +32033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:32</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44370.50662037037</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32986,10 +32110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:31</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44370.5066087963</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33061,10 +32183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:31</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44370.5066087963</v>
       </c>
       <c r="I449" t="n">
         <v>3</v>
@@ -33128,10 +32248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:31</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44370.5066087963</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33207,10 +32325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:30</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44370.50659722222</v>
       </c>
       <c r="I451" t="n">
         <v>2</v>
@@ -33286,10 +32402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:30</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44370.50659722222</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33353,10 +32467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:29</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44370.50658564815</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33424,10 +32536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:29</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44370.50658564815</v>
       </c>
       <c r="I454" t="n">
         <v>12</v>
@@ -33499,10 +32609,8 @@
           <t>4777271780</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:29</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44370.50658564815</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33566,10 +32674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:27</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44370.5065625</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33642,10 +32748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:26</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44370.50655092593</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33709,10 +32813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:26</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44370.50655092593</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33784,10 +32886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:25</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44370.50653935185</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33855,10 +32955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:24</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44370.50652777778</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33922,10 +33020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:24</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44370.50652777778</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33985,10 +33081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:24</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44370.50652777778</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34060,10 +33154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:23</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44370.50651620371</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34123,10 +33215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:22</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44370.50650462963</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34195,10 +33285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:22</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44370.50650462963</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34262,10 +33350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:18</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44370.50645833334</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34329,10 +33415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:18</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44370.50645833334</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34404,10 +33488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:17</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44370.50644675926</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34483,10 +33565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:16</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44370.50643518518</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34556,10 +33636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:16</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44370.50643518518</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34619,10 +33697,8 @@
           <t>4777271294</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:13</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44370.50640046296</v>
       </c>
       <c r="I471" t="n">
         <v>12</v>
@@ -34694,10 +33770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:11</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44370.50637731481</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34757,10 +33831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:11</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44370.50637731481</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34836,10 +33908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:10</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44370.50636574074</v>
       </c>
       <c r="I474" t="n">
         <v>19</v>
@@ -34911,10 +33981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:07</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44370.50633101852</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -34982,10 +34050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:06</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44370.50631944444</v>
       </c>
       <c r="I476" t="n">
         <v>41</v>
@@ -35057,10 +34123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:06</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44370.50631944444</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35124,10 +34188,8 @@
           <t>4777267717</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:06</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44370.50631944444</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35191,10 +34253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:05</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44370.50630787037</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35270,10 +34330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:05</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44370.50630787037</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35341,10 +34399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:04</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44370.5062962963</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35420,10 +34476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:04</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44370.5062962963</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35495,10 +34549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:03</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44370.50628472222</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35574,10 +34626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:03</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44370.50628472222</v>
       </c>
       <c r="I484" t="n">
         <v>1596</v>
@@ -35637,10 +34687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:03</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44370.50628472222</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35708,10 +34756,8 @@
           <t>4777270981</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:03</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44370.50628472222</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35790,10 +34836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:02</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44370.50627314814</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35857,10 +34901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:02</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44370.50627314814</v>
       </c>
       <c r="I488" t="n">
         <v>2</v>
@@ -35933,10 +34975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:01</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44370.50626157408</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36008,10 +35048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:09:00</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44370.50625</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36075,10 +35113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:59</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44370.50623842593</v>
       </c>
       <c r="I491" t="n">
         <v>1</v>
@@ -36142,10 +35178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:57</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44370.50621527778</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36217,10 +35251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:57</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44370.50621527778</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36284,10 +35316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:56</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44370.50620370371</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36347,10 +35377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:56</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44370.50620370371</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36426,10 +35454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:56</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44370.50620370371</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36493,10 +35519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:55</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44370.50619212963</v>
       </c>
       <c r="I497" t="n">
         <v>2294</v>
@@ -36564,10 +35588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:54</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44370.50618055555</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36644,10 +35666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:54</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44370.50618055555</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36715,10 +35735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:51</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44370.50614583334</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36794,10 +35812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:50</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44370.50613425926</v>
       </c>
       <c r="I501" t="n">
         <v>2</v>
@@ -36873,10 +35889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:50</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44370.50613425926</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -36944,10 +35958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:50</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44370.50613425926</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37017,10 +36029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:49</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44370.50612268518</v>
       </c>
       <c r="I504" t="n">
         <v>56</v>
@@ -37080,10 +36090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:48</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44370.50611111111</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37150,10 +36158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:48</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44370.50611111111</v>
       </c>
       <c r="I506" t="n">
         <v>415</v>
@@ -37225,10 +36231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:45</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44370.50607638889</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37300,10 +36304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:44</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44370.50606481481</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37367,10 +36369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:42</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44370.50604166667</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37438,10 +36438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:38</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44370.50599537037</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37505,10 +36503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:38</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44370.50599537037</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37584,10 +36580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:37</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44370.5059837963</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37659,10 +36653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:36</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44370.50597222222</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -37726,10 +36718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:34</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44370.50594907408</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37797,10 +36787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:33</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44370.5059375</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37860,10 +36848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:33</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44370.5059375</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -37935,10 +36921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:33</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44370.5059375</v>
       </c>
       <c r="I517" t="n">
         <v>4</v>
@@ -38015,10 +36999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:32</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44370.50592592593</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38086,10 +37068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:32</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44370.50592592593</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38153,10 +37133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:32</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44370.50592592593</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38220,10 +37198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:31</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44370.50591435185</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38299,10 +37275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:30</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44370.50590277778</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38366,10 +37340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:29</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44370.50589120371</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38437,10 +37409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:29</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44370.50589120371</v>
       </c>
       <c r="I524" t="n">
         <v>410</v>
@@ -38512,10 +37482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:29</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44370.50589120371</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38583,10 +37551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:28</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44370.50587962963</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38658,10 +37624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:28</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44370.50587962963</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38733,10 +37697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:28</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44370.50587962963</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38808,10 +37770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:27</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44370.50586805555</v>
       </c>
       <c r="I529" t="n">
         <v>4</v>
@@ -38887,10 +37847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:27</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44370.50586805555</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -38962,10 +37920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:27</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44370.50586805555</v>
       </c>
       <c r="I531" t="n">
         <v>5</v>
@@ -39041,10 +37997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:27</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44370.50586805555</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39120,10 +38074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:27</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44370.50586805555</v>
       </c>
       <c r="I533" t="n">
         <v>6</v>
@@ -39187,10 +38139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:27</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44370.50586805555</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39258,10 +38208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:26</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44370.50585648148</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39321,10 +38269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:25</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44370.50584490741</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39388,10 +38334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:25</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44370.50584490741</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39451,10 +38395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:23</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44370.50582175926</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39518,10 +38460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:22</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44370.50581018518</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39589,10 +38529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:21</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44370.50579861111</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39660,10 +38598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:21</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44370.50579861111</v>
       </c>
       <c r="I541" t="n">
         <v>2</v>
@@ -39731,10 +38667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:20</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44370.50578703704</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39806,10 +38740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:19</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44370.50577546296</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39869,10 +38801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:19</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44370.50577546296</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39948,10 +38878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:18</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44370.50576388889</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40032,10 +38960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:18</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44370.50576388889</v>
       </c>
       <c r="I546" t="n">
         <v>2990</v>
@@ -40112,10 +39038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:18</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44370.50576388889</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40191,10 +39115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:16</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44370.50574074074</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40266,10 +39188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:15</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44370.50572916667</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40329,10 +39249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-06-23 12:08:13</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44370.50570601852</v>
       </c>
       <c r="I550" t="n">
         <v>2</v>
